--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_208.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_208.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,658 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07338709677419356</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(10.1, 15.42)]</t>
+          <t>[['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(93.92, 110.76)]</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:07.620000', '0:00:11.120000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'B:maj/D#']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3214285714285714</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'G#']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(62.36, 68.9)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(14.032548, 17.97994)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A'], ['F:min/C', 'C:7', 'F:min'], ['F:min/G#', 'A#:min', 'F:min/G#']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1083333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(74.9, 86.12), (43.68, 45.8), (97.76, 109.38)]</t>
+          <t>[['Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(253.84, 257.6), (25.8, 29.46), (9.6, 13.3)]</t>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:03.129454', '0:00:05.172811')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0912442396313364</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.243, 9.12)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(28.009637, 33.826235)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
-        </is>
+          <t>jaah_75</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_15</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04981884057971014</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A/3', 'D/7']]</t>
+          <t>[['F:7', 'F:7', 'Bb:7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.78, 19.18)]</t>
+          <t>[['D:7', 'D:7', 'G:7', 'G:7']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(59.78, 64.294)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:11.420000', '0:00:18.960000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:06.610000', '0:00:09.700000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1326923076923077</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:09.162102', '0:00:14.073123')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:maj', 'F:maj'], ['F:maj/A', 'C:7', 'F:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj', 'G:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(45.96, 49.04), (44.76, 48.46)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(11.26, 13.9), (10.58, 13.22)]</t>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(5.7, 19.72)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.24, 28.04)]</t>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1426282051282051</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.38, 8.9)]</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5050505050505051</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3517156862745098</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(8.7, 25.02)]</t>
+          <t>[('0:00:25.606371', '0:00:42.394399')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:09.060000', '0:00:13.120000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1060794044665012</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'F#:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(2.795551, 15.447641)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(9.607823, 12.823786)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.260000', '0:00:07.820000'), ('0:00:55.680000', '0:01:02.280000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.54, 14.08)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(13.12, 19.96)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06346153846153846</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:maj', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(36.34, 42.08), (12.14, 20.02), (74.1, 80.04), (34.86, 39.7), (25.48, 32.58)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(38.62, 40.98), (14.62, 19.56), (25.8, 29.46), (43.32, 45.08), (9.6, 13.3)]</t>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(20.08, 22.56)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1637717121588089</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D', 'D/5', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'B']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(90.564195, 93.10678)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.421269, 22.168299)]</t>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_271</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_74</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'E/5']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(59.907505, 63.843287)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(46.610521, 69.517005)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
